--- a/lab_ans.xlsx
+++ b/lab_ans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\swiftx\MyHandouts\NTNU-CSIE-Camp\ntnucsiecamp-ml-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2DAD31-1B03-4C36-933A-FA1B2342A1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD8A9A-DAB4-4A25-B2B7-4F4194CBF74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A134FB4B-20FB-47C3-8637-E7FEB4D0A6B6}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{A134FB4B-20FB-47C3-8637-E7FEB4D0A6B6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,46 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
-    <t>a=0.939</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=34.669</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=-1.119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=-21.663</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=-0.039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=-4.915</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=-0.058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=-37.984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=-0.140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=21.732</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chinese</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +65,46 @@
   </si>
   <si>
     <t>Lab5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0.389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=39.407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=36.835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0.038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=-9.352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=-0.198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=50.465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1.053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0.076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=40.277</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,43 +489,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DBD45C-C59C-45DC-9076-BE93F567A56D}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="1"/>
       <c r="P1" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="1"/>
       <c r="U1" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -534,95 +534,95 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>-17</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3">
         <v>36</v>
       </c>
       <c r="G3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3">
-        <v>-91</v>
+        <v>91</v>
       </c>
       <c r="L3">
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3">
-        <v>-93</v>
+        <v>93</v>
       </c>
       <c r="Q3">
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3">
@@ -632,7 +632,7 @@
         <v>92</v>
       </c>
       <c r="X3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="1"/>
     </row>
@@ -644,37 +644,37 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4">
         <v>26</v>
       </c>
       <c r="G4">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4">
-        <v>-98</v>
+        <v>98</v>
       </c>
       <c r="L4">
         <v>-16</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4">
-        <v>-94</v>
+        <v>94</v>
       </c>
       <c r="Q4">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4">
@@ -684,7 +684,7 @@
         <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
@@ -700,18 +700,18 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>-89</v>
+        <v>89</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5">
-        <v>-36</v>
+        <v>36</v>
       </c>
       <c r="L5">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5">
-        <v>-67</v>
+        <v>67</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -737,21 +737,21 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>-18</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6">
-        <v>-48</v>
+        <v>48</v>
       </c>
       <c r="L6">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q6">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6">
@@ -764,31 +764,31 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="B7">
-        <v>-74</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7">
-        <v>-35</v>
+        <v>35</v>
       </c>
       <c r="G7">
-        <v>-93</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7">
         <v>8</v>
       </c>
       <c r="L7">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="Q7">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7">
@@ -801,17 +801,17 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>-67</v>
+        <v>67</v>
       </c>
       <c r="B8">
-        <v>-67</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8">
@@ -822,30 +822,30 @@
       </c>
       <c r="O8" s="1"/>
       <c r="P8">
-        <v>-47</v>
+        <v>47</v>
       </c>
       <c r="Q8">
-        <v>-96</v>
+        <v>96</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8">
         <v>61</v>
       </c>
       <c r="V8">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>35</v>
@@ -855,7 +855,7 @@
         <v>91</v>
       </c>
       <c r="L9">
-        <v>-29</v>
+        <v>29</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9">
@@ -875,47 +875,47 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>40</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10">
-        <v>-27</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>76</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>11</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10">
-        <v>-57</v>
+        <v>57</v>
       </c>
       <c r="Q10">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10">
         <v>46</v>
       </c>
       <c r="V10">
-        <v>-73</v>
+        <v>73</v>
       </c>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>-83</v>
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>-30</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11">
@@ -936,27 +936,27 @@
         <v>21</v>
       </c>
       <c r="Q11">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11">
         <v>100</v>
       </c>
       <c r="V11">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>-41</v>
+        <v>90</v>
       </c>
       <c r="B12">
-        <v>-12</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>53</v>
@@ -966,11 +966,11 @@
         <v>60</v>
       </c>
       <c r="L12">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -980,20 +980,20 @@
         <v>100</v>
       </c>
       <c r="V12">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>62</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13">
-        <v>-46</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>87</v>
@@ -1010,7 +1010,7 @@
         <v>25</v>
       </c>
       <c r="Q13">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13">
@@ -1024,25 +1024,25 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
       <c r="F14">
-        <v>-94</v>
+        <v>60</v>
       </c>
       <c r="G14">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="J14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14">
-        <v>-43</v>
+        <v>43</v>
       </c>
       <c r="Q14">
-        <v>-57</v>
+        <v>57</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14">
         <v>65</v>
       </c>
       <c r="V14">
-        <v>-47</v>
+        <v>47</v>
       </c>
       <c r="Y14" s="1"/>
     </row>

--- a/lab_ans.xlsx
+++ b/lab_ans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\swiftx\MyHandouts\NTNU-CSIE-Camp\ntnucsiecamp-ml-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD8A9A-DAB4-4A25-B2B7-4F4194CBF74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0C8B55-5084-49D7-BFAC-B0F84043A7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{A134FB4B-20FB-47C3-8637-E7FEB4D0A6B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A134FB4B-20FB-47C3-8637-E7FEB4D0A6B6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -84,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b=-9.352</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a=-0.198</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +92,10 @@
   </si>
   <si>
     <t>b=40.277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=9.352</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DBD45C-C59C-45DC-9076-BE93F567A56D}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -602,7 +593,7 @@
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3">
@@ -622,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3">
@@ -632,7 +623,7 @@
         <v>92</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y3" s="1"/>
     </row>
@@ -661,10 +652,10 @@
         <v>98</v>
       </c>
       <c r="L4">
-        <v>-16</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4">
@@ -674,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4">
@@ -684,7 +675,7 @@
         <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
